--- a/data/questionnaire.xlsx
+++ b/data/questionnaire.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-go-nl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1AB88-D454-1E48-B981-7AF66847CF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF25EE-1824-3546-A3CA-6822DD78C3AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32920" yWindow="-3980" windowWidth="25040" windowHeight="17980" activeTab="2" xr2:uid="{1ADC4D55-EC6F-0A48-848C-354E1C0C1BD0}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{1ADC4D55-EC6F-0A48-848C-354E1C0C1BD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="packages" sheetId="1" r:id="rId1"/>
-    <sheet name="entities" sheetId="2" r:id="rId2"/>
-    <sheet name="attributes" sheetId="3" r:id="rId3"/>
+    <sheet name="entities" sheetId="2" r:id="rId1"/>
+    <sheet name="attributes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,38 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>requests</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>GoNL Data Request</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>All data access requests for the GoNL database</t>
-  </si>
-  <si>
-    <t>requests_submissions</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t>GoNL Data Requests</t>
-  </si>
-  <si>
-    <t>All submissions</t>
-  </si>
-  <si>
     <t>extends</t>
   </si>
   <si>
@@ -98,24 +76,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Name of the applicant or the project lead</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>primary email address</t>
-  </si>
-  <si>
-    <t>affiliation</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>Affiliation</t>
   </si>
   <si>
@@ -128,86 +94,243 @@
     <t>Please ensure that a full postal and email address is included for each applicant</t>
   </si>
   <si>
-    <t>Enter the title of the study</t>
-  </si>
-  <si>
     <t>In less than 30 words</t>
   </si>
   <si>
+    <t>Please describe the study in no more than 750 words. Include: a. outline of the study design; b. an indication of the methodologies to be used; c. proposed use of the Project Data; d. preceding peer-reviews of the study (if any present); e. specific details of what you plan to do with the Project Data; f. timeline; g. key references.</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>If your proposed use of Project Data involves use of your own data, please confirm that you have obtained all approvals required by the rules and regulations of your jurisdiction, including your institution’s institutional rules, and the consent of your data subjects, for your use of your own data in the study, by ticking the following box.</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>498 unrelated parents and 249 children</t>
+  </si>
+  <si>
+    <t>INDEL calls</t>
+  </si>
+  <si>
+    <t>SNV calls</t>
+  </si>
+  <si>
+    <t>Imputation-ready haplotypes</t>
+  </si>
+  <si>
+    <t>SNVs and INDELS (998 haplotypes)</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>partOfAttribute</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Do you have approval to carry out the proposed research?</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>Please specify official IRB or METc</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unaligned fastq files</t>
+  </si>
+  <si>
+    <t>750 samples</t>
+  </si>
+  <si>
+    <t>trio-BAM files</t>
+  </si>
+  <si>
+    <t>249 trios, 498 unrelated parents, 249 children</t>
+  </si>
+  <si>
+    <t>SV Calls</t>
+  </si>
+  <si>
+    <t>&gt; 20bp</t>
+  </si>
+  <si>
+    <t>Other data required</t>
+  </si>
+  <si>
+    <t>Please describe below</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>Do you have funding to carry out the proposed research?</t>
+  </si>
+  <si>
+    <t>Please confirm that you have secured funding for your proposed use of the Project Data and that you will carry out your research within a reasonable period of time after the granting of this application</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Please describe your experience and expertise, and that of your collaborators, and how this will be applied to the proposed study</t>
+  </si>
+  <si>
+    <t>Please provide a list of recent publications</t>
+  </si>
+  <si>
+    <t>maximum 10 publications</t>
+  </si>
+  <si>
+    <t>In 250 words</t>
+  </si>
+  <si>
+    <t>Have you read and agree to the GoNL data acess agreement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select all that apply. Twin data cannot be requested in light of privacy concerns. Age, sex and family structure is included in the data access. </t>
+  </si>
+  <si>
+    <t>applicant_name</t>
+  </si>
+  <si>
+    <t>applicant_email</t>
+  </si>
+  <si>
+    <t>applicant_affiliation</t>
+  </si>
+  <si>
+    <t>applicant_team</t>
+  </si>
+  <si>
+    <t>research_title</t>
+  </si>
+  <si>
+    <t>research_question</t>
+  </si>
+  <si>
+    <t>consent_status</t>
+  </si>
+  <si>
+    <t>consent_info</t>
+  </si>
+  <si>
+    <t>$('consent_status').eq(true).value()</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data_snv</t>
+  </si>
+  <si>
+    <t>data_indel</t>
+  </si>
+  <si>
+    <t>data_haplotypes</t>
+  </si>
+  <si>
+    <t>data_svCalls</t>
+  </si>
+  <si>
+    <t>data_trioBamFiles</t>
+  </si>
+  <si>
+    <t>data_fastq</t>
+  </si>
+  <si>
+    <t>data_other</t>
+  </si>
+  <si>
+    <t>data_other_info</t>
+  </si>
+  <si>
+    <t>resources_hasFunding</t>
+  </si>
+  <si>
+    <t>resources_experience</t>
+  </si>
+  <si>
+    <t>resources_pubs</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>agreement_hasAgreed</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Individual level sequence data and/or variant calls can be requested as follows.&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Fill in the form below, for questions email &lt;a href="mailto:gonl@bbmri.nl"&gt;gonl@bbmri.nl&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Your research request will be evaluated by the GoNL steering committee&lt;/li&gt;&lt;li&gt;If positive, you will receive a &lt;a href="http://localhost/api/files/aaaac5wm2w4d4ascvqkqabqaae?alt=media"&gt;data access agreement&lt;/a&gt; to be signed&lt;/li&gt;&lt;li&gt;You will be granted access to the data using a suitable method&lt;/li&gt;&lt;li&gt;At publication add suitable acknowledgement&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>$('data_other').eq(true).value()</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>Title of the Study</t>
+  </si>
+  <si>
     <t>Research Question</t>
   </si>
   <si>
-    <t>Please describe the study in no more than 750 words. Include: a. outline of the study design; b. an indication of the methodologies to be used; c. proposed use of the Project Data; d. preceding peer-reviews of the study (if any present); e. specific details of what you plan to do with the Project Data; f. timeline; g. key references.</t>
-  </si>
-  <si>
-    <t>studyTitle</t>
-  </si>
-  <si>
-    <t>researchQuestion</t>
-  </si>
-  <si>
-    <t>Consent and Approvals</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>If your proposed use of Project Data involves use of your own data, please confirm that you have obtained all approvals required by the rules and regulations of your jurisdiction, including your institution’s institutional rules, and the consent of your data subjects, for your use of your own data in the study, by ticking the following box.</t>
-  </si>
-  <si>
-    <t>consentStatus</t>
-  </si>
-  <si>
-    <t>consentInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please specify IRB or METc </t>
-  </si>
-  <si>
-    <t>dataRequested</t>
-  </si>
-  <si>
-    <t>The project data applied for</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>Select all that apply</t>
-  </si>
-  <si>
-    <t>dataRequested_snv</t>
-  </si>
-  <si>
-    <t>498 unrelated parents and 249 children</t>
-  </si>
-  <si>
-    <t>dataRequested_indel</t>
-  </si>
-  <si>
-    <t>INDEL calls</t>
-  </si>
-  <si>
-    <t>SNV calls</t>
-  </si>
-  <si>
-    <t>dataRequested_haplotypes</t>
-  </si>
-  <si>
-    <t>Imputation-ready haplotypes</t>
-  </si>
-  <si>
-    <t>SNVs and INDELS (998 haplotypes)</t>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>GoNL Data Access Requests</t>
+  </si>
+  <si>
+    <t>Applicant Information</t>
+  </si>
+  <si>
+    <t>Research Study</t>
+  </si>
+  <si>
+    <t>Consent and approvals</t>
+  </si>
+  <si>
+    <t>Data Requested</t>
+  </si>
+  <si>
+    <t>Resources, Feasibility &amp; Expertise</t>
+  </si>
+  <si>
+    <t>Access Conditions</t>
+  </si>
+  <si>
+    <t>Please declare that you have read and agree to abide by the terms and conditions outlined in the GoNL data access agreement(which you will need to sign on approval of this project)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,8 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,56 +672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3A204-4191-C14E-93DE-FD770C3F23DC}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13AEB53-7FE2-C443-8E46-F00AE515AAC3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -608,27 +692,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -636,222 +720,626 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285C2493-3E30-F44E-AEC1-6E72AC6D6409}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="59.5" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>53</v>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
